--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1337793441036443</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.897267783789403</v>
+        <v>-1.988788821018156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3805578335314899</v>
+        <v>-0.03455234930120813</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1379985556017392</v>
+        <v>-0.1154900429470289</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1411350228311448</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.019478199710088</v>
+        <v>-2.097530358634214</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3288054541887404</v>
+        <v>-0.05196009533627446</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1419447423802992</v>
+        <v>-0.1201565460448283</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1504778565254674</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.169900496533754</v>
+        <v>-2.201820695151364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2970017504203897</v>
+        <v>-0.0967459607092076</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1590847332382731</v>
+        <v>-0.1735782782798372</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1582335713301058</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.185363815451348</v>
+        <v>-2.275916908566102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2699005350697665</v>
+        <v>-0.08725437513765433</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1975896354820547</v>
+        <v>-0.1613469290283316</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1595390447663459</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.089903910492156</v>
+        <v>-2.130585009710575</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2806040330260181</v>
+        <v>-0.06211283492142262</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2314316941520975</v>
+        <v>-0.1499847167411921</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1491568278101952</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.857518033444378</v>
+        <v>-1.884440542036714</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3842411444983714</v>
+        <v>0.1080227080954179</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2054942074527096</v>
+        <v>-0.1410670665264587</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1255957224949356</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.479430035690287</v>
+        <v>-1.608235523888649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4064575051489194</v>
+        <v>0.218547653770287</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1840225599484709</v>
+        <v>-0.1605265857181055</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08927480629371135</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.07449089006304</v>
+        <v>-1.236752357143063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4014964103642507</v>
+        <v>0.2379101955743308</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1843372790176729</v>
+        <v>-0.1959507786236327</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03944502329342515</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.609401977215576</v>
+        <v>-0.8434450087420781</v>
       </c>
       <c r="F10" t="n">
-        <v>0.381905758227103</v>
+        <v>0.3578077922887873</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1163146557019923</v>
+        <v>-0.1748591117010081</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0260205624410995</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04347792848473921</v>
+        <v>-0.4201783566992283</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3835250976238692</v>
+        <v>0.3505997497309787</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03384789091956412</v>
+        <v>-0.1319871774117104</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1113624893699774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6099239933086877</v>
+        <v>0.1950565589053355</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2945303518382065</v>
+        <v>0.2472962648688067</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05440214171978913</v>
+        <v>0.002983998907897597</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2230191699562658</v>
       </c>
       <c r="E13" t="n">
-        <v>1.237345733955354</v>
+        <v>0.7287987530482378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.205189171108151</v>
+        <v>0.2142611312541016</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1924534174569748</v>
+        <v>0.04160295631823113</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.363064580840046</v>
       </c>
       <c r="E14" t="n">
-        <v>1.863223765369172</v>
+        <v>1.32024432257692</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01288850077760931</v>
+        <v>-0.06519598394238406</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3364526396338076</v>
+        <v>0.1626929479557301</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5301209494432245</v>
       </c>
       <c r="E15" t="n">
-        <v>2.537270892149844</v>
+        <v>2.029229535483752</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2806919376096544</v>
+        <v>-0.4082751447718131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4689255808614555</v>
+        <v>0.2666679554830018</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7186189321564636</v>
       </c>
       <c r="E16" t="n">
-        <v>3.169848902197739</v>
+        <v>2.71212051207727</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4780976440045773</v>
+        <v>-0.5947352147018155</v>
       </c>
       <c r="G16" t="n">
-        <v>0.645258527874733</v>
+        <v>0.4311312362060853</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9198689795100802</v>
       </c>
       <c r="E17" t="n">
-        <v>3.780824741716571</v>
+        <v>3.223817123359114</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7712383295839057</v>
+        <v>-0.9092005569022862</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8005620198744142</v>
+        <v>0.5232005921232349</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.127102523978369</v>
       </c>
       <c r="E18" t="n">
-        <v>4.289050904347718</v>
+        <v>3.807176974476147</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.105643808469301</v>
+        <v>-1.145951026312873</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9506018964337598</v>
+        <v>0.6085492321032977</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.338492828613408</v>
       </c>
       <c r="E19" t="n">
-        <v>4.712646913556012</v>
+        <v>4.124408916866347</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.423039209600869</v>
+        <v>-1.425259930784909</v>
       </c>
       <c r="G19" t="n">
-        <v>1.153052256746066</v>
+        <v>0.7727380485218446</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.549664545110687</v>
       </c>
       <c r="E20" t="n">
-        <v>5.113067156889233</v>
+        <v>4.481889524715151</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.66117480886835</v>
+        <v>-1.724487624718183</v>
       </c>
       <c r="G20" t="n">
-        <v>1.33949707865915</v>
+        <v>0.914186582428517</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.755330528104182</v>
       </c>
       <c r="E21" t="n">
-        <v>5.486971708721509</v>
+        <v>4.812809306932931</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.958198249475857</v>
+        <v>-2.030858099696853</v>
       </c>
       <c r="G21" t="n">
-        <v>1.506493359952768</v>
+        <v>1.061029864721026</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.952910517384921</v>
       </c>
       <c r="E22" t="n">
-        <v>5.70821799452916</v>
+        <v>5.03338467999616</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.287577372064171</v>
+        <v>-2.376517224988926</v>
       </c>
       <c r="G22" t="n">
-        <v>1.696431807502264</v>
+        <v>1.177339298094173</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.135342416918605</v>
       </c>
       <c r="E23" t="n">
-        <v>5.889584006966962</v>
+        <v>5.171260908499119</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.54432287102059</v>
+        <v>-2.674493361693513</v>
       </c>
       <c r="G23" t="n">
-        <v>1.804373739111105</v>
+        <v>1.322375385421478</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.293983715613561</v>
       </c>
       <c r="E24" t="n">
-        <v>5.980098675079081</v>
+        <v>5.257675689822137</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.722858851518281</v>
+        <v>-2.867783933282417</v>
       </c>
       <c r="G24" t="n">
-        <v>1.932241169308629</v>
+        <v>1.441128161025678</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.42267971492527</v>
       </c>
       <c r="E25" t="n">
-        <v>6.068904345454952</v>
+        <v>5.380050174404867</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.955147141257779</v>
+        <v>-3.070790541251918</v>
       </c>
       <c r="G25" t="n">
-        <v>2.030676267328998</v>
+        <v>1.466605157614121</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.518747300901258</v>
       </c>
       <c r="E26" t="n">
-        <v>6.090343057242646</v>
+        <v>5.379539060877752</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.07842552828345</v>
+        <v>-3.164230693890059</v>
       </c>
       <c r="G26" t="n">
-        <v>2.154624957178415</v>
+        <v>1.579339235980172</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.579490162153137</v>
       </c>
       <c r="E27" t="n">
-        <v>6.083120376588595</v>
+        <v>5.273299417877715</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.186657172213746</v>
+        <v>-3.315128118920912</v>
       </c>
       <c r="G27" t="n">
-        <v>2.111818284401529</v>
+        <v>1.558798937349328</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.606126391150284</v>
       </c>
       <c r="E28" t="n">
-        <v>5.944831841708154</v>
+        <v>5.152779092152299</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.223692165626565</v>
+        <v>-3.297835647893751</v>
       </c>
       <c r="G28" t="n">
-        <v>2.145206562088071</v>
+        <v>1.576811724695728</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.59983554258209</v>
       </c>
       <c r="E29" t="n">
-        <v>5.788127361913983</v>
+        <v>4.999501146720098</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.244003744003629</v>
+        <v>-3.286417017944012</v>
       </c>
       <c r="G29" t="n">
-        <v>2.106674823334513</v>
+        <v>1.573012528800265</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.560417288423572</v>
       </c>
       <c r="E30" t="n">
-        <v>5.645387625934635</v>
+        <v>4.823123065576741</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.277970226491728</v>
+        <v>-3.248257025842932</v>
       </c>
       <c r="G30" t="n">
-        <v>2.086988413651115</v>
+        <v>1.529575198043621</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.487784090816795</v>
       </c>
       <c r="E31" t="n">
-        <v>5.482153335375199</v>
+        <v>4.701325565954214</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.242446616515891</v>
+        <v>-3.145819628341742</v>
       </c>
       <c r="G31" t="n">
-        <v>1.939433963849518</v>
+        <v>1.421664372389294</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.382438818742062</v>
       </c>
       <c r="E32" t="n">
-        <v>5.177708989893699</v>
+        <v>4.374717922921043</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.159870370971987</v>
+        <v>-2.993576718297982</v>
       </c>
       <c r="G32" t="n">
-        <v>1.862526626035649</v>
+        <v>1.334030359633457</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.246160838899523</v>
       </c>
       <c r="E33" t="n">
-        <v>4.863620578671458</v>
+        <v>4.046590357561416</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.079834140086399</v>
+        <v>-2.914432496402139</v>
       </c>
       <c r="G33" t="n">
-        <v>1.723420797448366</v>
+        <v>1.180191897099324</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.082976355900557</v>
       </c>
       <c r="E34" t="n">
-        <v>4.500620188698084</v>
+        <v>3.788715895432337</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.912900375662148</v>
+        <v>-2.600338595893808</v>
       </c>
       <c r="G34" t="n">
-        <v>1.544449943508153</v>
+        <v>1.076215669730699</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.901349647908925</v>
       </c>
       <c r="E35" t="n">
-        <v>4.13968864966024</v>
+        <v>3.526837913981084</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.799802784572755</v>
+        <v>-2.46569372713626</v>
       </c>
       <c r="G35" t="n">
-        <v>1.427804443842117</v>
+        <v>0.9997889494101069</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.710582841478691</v>
       </c>
       <c r="E36" t="n">
-        <v>3.741123785025686</v>
+        <v>3.241357222181034</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.701929423495671</v>
+        <v>-2.364033368577247</v>
       </c>
       <c r="G36" t="n">
-        <v>1.376665644700176</v>
+        <v>0.9537655549840519</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.518263447816341</v>
       </c>
       <c r="E37" t="n">
-        <v>3.391355014213684</v>
+        <v>2.868677391067669</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.649556754824669</v>
+        <v>-2.279959462811588</v>
       </c>
       <c r="G37" t="n">
-        <v>1.266407234361046</v>
+        <v>0.8916426943745552</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.333302657414856</v>
       </c>
       <c r="E38" t="n">
-        <v>3.051736543304124</v>
+        <v>2.637497937118499</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.565999451872215</v>
+        <v>-2.182434366440927</v>
       </c>
       <c r="G38" t="n">
-        <v>1.162490779218742</v>
+        <v>0.7870510570430913</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.1614618650551</v>
       </c>
       <c r="E39" t="n">
-        <v>2.734946183483889</v>
+        <v>2.383980748304108</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.448725123988452</v>
+        <v>-2.048734264811662</v>
       </c>
       <c r="G39" t="n">
-        <v>1.017140582742912</v>
+        <v>0.6409408994040335</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.005035042248831</v>
       </c>
       <c r="E40" t="n">
-        <v>2.415857642553668</v>
+        <v>2.138161368350954</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.381259358250642</v>
+        <v>-1.950624864432676</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9238861509508414</v>
+        <v>0.6049513100311609</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8653690772302561</v>
       </c>
       <c r="E41" t="n">
-        <v>2.060656918194549</v>
+        <v>1.880523555444454</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.292021864035634</v>
+        <v>-1.841120316050007</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7886496591368479</v>
+        <v>0.5494991518632577</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7430585677842801</v>
       </c>
       <c r="E42" t="n">
-        <v>1.718859200706967</v>
+        <v>1.563769180944148</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.199852481127498</v>
+        <v>-1.782533775524295</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7332481243851149</v>
+        <v>0.5131765458008806</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6352522793442014</v>
       </c>
       <c r="E43" t="n">
-        <v>1.467655441019482</v>
+        <v>1.383819404317754</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.092886422601454</v>
+        <v>-1.63089590679187</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6013064240669145</v>
+        <v>0.4177093217935676</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5409782325820357</v>
       </c>
       <c r="E44" t="n">
-        <v>1.201696480320107</v>
+        <v>1.125536295335254</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.03098069375288</v>
+        <v>-1.644415408512667</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5552616824171733</v>
+        <v>0.4638967848816677</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4583580601072232</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9747382873747107</v>
+        <v>0.9680096424688261</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.949460525860764</v>
+        <v>-1.596183491316108</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4668353827022399</v>
+        <v>0.3509577731682298</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3837508888036675</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7843558175725416</v>
+        <v>0.8662187608849892</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.826789619829134</v>
+        <v>-1.54966911074527</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3647285622078475</v>
+        <v>0.3267122064261411</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3149062743547161</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5821329576726625</v>
+        <v>0.6566122012723982</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.725924597832601</v>
+        <v>-1.487778629913615</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3154317235096857</v>
+        <v>0.2399631885722648</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2509226041493666</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4821742778017768</v>
+        <v>0.5229688222660707</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.651927801488173</v>
+        <v>-1.462090600771017</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2297939811288444</v>
+        <v>0.1550195359215628</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1900315620922818</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3587318221140606</v>
+        <v>0.4958688267568009</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.511103826354491</v>
+        <v>-1.384822189916513</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1517223047430628</v>
+        <v>0.137344034709404</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1311121305021587</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2583644953897537</v>
+        <v>0.3897969119428694</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.425151364904448</v>
+        <v>-1.348766729110551</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1335857034992825</v>
+        <v>0.09631284102253193</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07455199318254067</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06052147586960239</v>
+        <v>0.1884352600385586</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.310497256247994</v>
+        <v>-1.294367294030715</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09593225052024114</v>
+        <v>0.04255687225666509</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01933532511501488</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02936977730469533</v>
+        <v>0.1577843063492617</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.22231309504173</v>
+        <v>-1.22324139431174</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03865033032209378</v>
+        <v>-0.01175534416639597</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.03498576538753702</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1061460581792487</v>
+        <v>0.02610975128747696</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.150328427009894</v>
+        <v>-1.206874172951206</v>
       </c>
       <c r="G53" t="n">
-        <v>0.003397525126732781</v>
+        <v>-0.04788521529492068</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08732465491448402</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.237547978698527</v>
+        <v>-0.09733514408294623</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.065750116844564</v>
+        <v>-1.157474867579351</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.08415048881368345</v>
+        <v>-0.09977970615535244</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1382746424545798</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2856213165191322</v>
+        <v>-0.09092914721506137</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9711331222606374</v>
+        <v>-1.134400348536618</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1109626017635281</v>
+        <v>-0.1082167388768083</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1885709143912058</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3434515554056761</v>
+        <v>-0.1881858784879532</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8893610571290254</v>
+        <v>-1.113369673681668</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1486325226008416</v>
+        <v>-0.1889921936226141</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2382607146508609</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.4364437213067455</v>
+        <v>-0.293225807516827</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8938171375933466</v>
+        <v>-1.066205117669418</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1923339490105167</v>
+        <v>-0.1842165147236768</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2885622934264764</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4997839835870313</v>
+        <v>-0.3567222094903603</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7990793787154243</v>
+        <v>-1.05263316277042</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2465607765388331</v>
+        <v>-0.2146466771279909</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3406039459892634</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6239119901154123</v>
+        <v>-0.4622702024429652</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8166072791238099</v>
+        <v>-1.08123539290652</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2436435259419471</v>
+        <v>-0.2253550544496566</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3942847099881867</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7832226609613283</v>
+        <v>-0.6303362846035996</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8074578590519124</v>
+        <v>-1.138697239704308</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2787316525545862</v>
+        <v>-0.2712991591877343</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4499054447385617</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8444983417508219</v>
+        <v>-0.7086305820363943</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8131093840426599</v>
+        <v>-1.16606133086661</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3150024153594396</v>
+        <v>-0.3134263803307227</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5070897169788255</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9328837767804132</v>
+        <v>-0.7797174468320572</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7412759763386574</v>
+        <v>-1.123707219231871</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3198994684730498</v>
+        <v>-0.3539781763656708</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.564194488485938</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.037688886348739</v>
+        <v>-0.8953925627013869</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7883746609178192</v>
+        <v>-1.201521509092065</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3690517559708223</v>
+        <v>-0.3568789591042846</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6196678452110891</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.076551202109095</v>
+        <v>-1.039413742022583</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7994904652515524</v>
+        <v>-1.221744039050324</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3765531703741467</v>
+        <v>-0.4011805474598797</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6727098040706384</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.173367570653375</v>
+        <v>-1.14375897140064</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8342358164438591</v>
+        <v>-1.256893767651314</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4245691756511375</v>
+        <v>-0.4284653489342041</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.721937748957023</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.200202250668259</v>
+        <v>-1.240209997459548</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8338283894317914</v>
+        <v>-1.299113086816492</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.490916956788468</v>
+        <v>-0.4905540539858029</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7662728483645567</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.237539154816068</v>
+        <v>-1.316096328060541</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.886633491862608</v>
+        <v>-1.298920351882639</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5172637002619539</v>
+        <v>-0.5329593989573884</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8053528003380298</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.310813805079226</v>
+        <v>-1.376046651219461</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9609071921942796</v>
+        <v>-1.368095115356697</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.566603233407488</v>
+        <v>-0.5510142708304844</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8382054024361208</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.350870955445332</v>
+        <v>-1.485601213097624</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.014822350256778</v>
+        <v>-1.422237163910945</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5473687749455612</v>
+        <v>-0.5445741184047017</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8639142616504204</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.406968409689235</v>
+        <v>-1.510252377089751</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.039077675729694</v>
+        <v>-1.379680558611526</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5696625955220562</v>
+        <v>-0.5572720569739195</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8814683169004018</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.407318504157688</v>
+        <v>-1.543623576997344</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.15369579906622</v>
+        <v>-1.502432584093164</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5895783353799107</v>
+        <v>-0.6187557207141842</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8903980676432161</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.494386510525503</v>
+        <v>-1.58283842690886</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.254271108741298</v>
+        <v>-1.568669359667326</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5874332443597877</v>
+        <v>-0.6137470521167292</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.889964857171828</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.423020911980567</v>
+        <v>-1.493353304899092</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.33589313338643</v>
+        <v>-1.582335242350543</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6653329231147264</v>
+        <v>-0.6819203258395666</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8796578196015069</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.336629307643265</v>
+        <v>-1.360876704147384</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.420342140368289</v>
+        <v>-1.631620492555847</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.638762338752874</v>
+        <v>-0.65809072499902</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8594551558979996</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.292651587167023</v>
+        <v>-1.274989504209753</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.447392732302742</v>
+        <v>-1.63636872502433</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6724311799507203</v>
+        <v>-0.6272104411352658</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8291012952754662</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.172042213022801</v>
+        <v>-1.128202944540181</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.507412586418812</v>
+        <v>-1.695381600103089</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5991376221465829</v>
+        <v>-0.5887732400866031</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7882157310671828</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.10256797849646</v>
+        <v>-0.9778556679597545</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.536758919780544</v>
+        <v>-1.666955027121892</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5953457452992402</v>
+        <v>-0.5973572636911554</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7373734859388819</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.9940112468454571</v>
+        <v>-0.8106697013356676</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.592483712490954</v>
+        <v>-1.684658584685181</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5440239699542749</v>
+        <v>-0.5199369825881406</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6769066588866334</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.7310787125441066</v>
+        <v>-0.5968900644527664</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.592823438307903</v>
+        <v>-1.669396539590914</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4722698519382497</v>
+        <v>-0.4538837931376795</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6069063606722199</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5374642730758495</v>
+        <v>-0.402341836428408</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.647377793239633</v>
+        <v>-1.731544406948158</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4391170036329322</v>
+        <v>-0.4162773040507477</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5286554804844605</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2393557835844083</v>
+        <v>-0.1708519328547734</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.624541753181509</v>
+        <v>-1.65690231452773</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4043856806161908</v>
+        <v>-0.3786866729014114</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4439895791073649</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.01049341828620424</v>
+        <v>0.05368182540054967</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.668250498639305</v>
+        <v>-1.724194252872667</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2723232160039943</v>
+        <v>-0.2529082210217501</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3539592841704956</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2414989688363164</v>
+        <v>0.3247958356597986</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.650560969251581</v>
+        <v>-1.731973791104588</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2192149829968339</v>
+        <v>-0.233718286769226</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2615111341296945</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5603533002266661</v>
+        <v>0.6185805974737729</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.645605363753003</v>
+        <v>-1.669405688401066</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.118435959815722</v>
+        <v>-0.1328672929482578</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1696346430933185</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8176336996165924</v>
+        <v>0.9222210675033191</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.608617334232294</v>
+        <v>-1.641889117069577</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.04539978853717234</v>
+        <v>-0.07896250353726447</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.08140890306420803</v>
       </c>
       <c r="E86" t="n">
-        <v>1.031051043617505</v>
+        <v>1.142421949271024</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.486772260796981</v>
+        <v>-1.523955464934249</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.003115207859582982</v>
+        <v>-0.05803368543533161</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.00094389078581156</v>
       </c>
       <c r="E87" t="n">
-        <v>1.22999618980054</v>
+        <v>1.373972844912333</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.344444831195114</v>
+        <v>-1.404153625766042</v>
       </c>
       <c r="G87" t="n">
-        <v>0.08332762981456578</v>
+        <v>0.006256833259327676</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.067344791243944</v>
       </c>
       <c r="E88" t="n">
-        <v>1.484163554056345</v>
+        <v>1.543739995840418</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.278438605636763</v>
+        <v>-1.363382868208141</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1182346099862106</v>
+        <v>0.0961628005360519</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1200260538656957</v>
       </c>
       <c r="E89" t="n">
-        <v>1.667084254299178</v>
+        <v>1.682140146204704</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.142588533621961</v>
+        <v>-1.195754709093412</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1285916729980694</v>
+        <v>0.1184877270670611</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1539210761911222</v>
       </c>
       <c r="E90" t="n">
-        <v>1.799605379260289</v>
+        <v>1.843304365987257</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.019376627950055</v>
+        <v>-1.133396419102691</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1774377803161144</v>
+        <v>0.1740380824639207</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1670993057764044</v>
       </c>
       <c r="E91" t="n">
-        <v>1.897187808174564</v>
+        <v>1.949800175671528</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7863649722879342</v>
+        <v>-0.8970332493218391</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1643952365645339</v>
+        <v>0.148264664426578</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1590619046454264</v>
       </c>
       <c r="E92" t="n">
-        <v>2.015119020627185</v>
+        <v>2.03496705928992</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6220864975299053</v>
+        <v>-0.7570967087728252</v>
       </c>
       <c r="G92" t="n">
-        <v>0.206123569584929</v>
+        <v>0.174327794785376</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1307284000499763</v>
       </c>
       <c r="E93" t="n">
-        <v>2.002261892761336</v>
+        <v>2.05352755540404</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3946379283604033</v>
+        <v>-0.4914189215054316</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1707719572399349</v>
+        <v>0.1694167134962007</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0860047543187237</v>
       </c>
       <c r="E94" t="n">
-        <v>2.017602007702227</v>
+        <v>2.111809745512055</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2454751177342215</v>
+        <v>-0.3409179449144646</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1254749783398868</v>
+        <v>0.1005743567909706</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03227914299572689</v>
       </c>
       <c r="E95" t="n">
-        <v>1.968041683271709</v>
+        <v>2.059471842319627</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1227602974138658</v>
+        <v>-0.2000439562852889</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1043869709413227</v>
+        <v>0.1120719714683483</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02078641054367707</v>
       </c>
       <c r="E96" t="n">
-        <v>1.903414488363485</v>
+        <v>1.981871634616972</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01763497949024725</v>
+        <v>-0.005561599694019442</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04620358798294173</v>
+        <v>0.04988262950508602</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06295409905176873</v>
       </c>
       <c r="E97" t="n">
-        <v>1.757297621596983</v>
+        <v>1.818934375427112</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05722241492907214</v>
+        <v>0.1156552554442431</v>
       </c>
       <c r="G97" t="n">
-        <v>0.07333529936740234</v>
+        <v>0.05680034982076249</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08739528671610963</v>
       </c>
       <c r="E98" t="n">
-        <v>1.576898333431826</v>
+        <v>1.666323683215273</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1064253258430147</v>
+        <v>0.2191831911154584</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03933771092478884</v>
+        <v>0.01582831843953495</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09328443471068229</v>
       </c>
       <c r="E99" t="n">
-        <v>1.411493945104521</v>
+        <v>1.538642888744835</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1017704112380736</v>
+        <v>0.2599014954951588</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02410860154706658</v>
+        <v>0.001343312287445321</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08678772343079089</v>
       </c>
       <c r="E100" t="n">
-        <v>1.283908298259655</v>
+        <v>1.394860188408247</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1315851636795489</v>
+        <v>0.2406426402061621</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02189397956979439</v>
+        <v>-0.01904633593624225</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07786871128091637</v>
       </c>
       <c r="E101" t="n">
-        <v>1.137252871535584</v>
+        <v>1.233436752338076</v>
       </c>
       <c r="F101" t="n">
-        <v>0.170498102856075</v>
+        <v>0.2766596760094884</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.03338679088794259</v>
+        <v>-0.06975575092175254</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07888017612907894</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9885224946692168</v>
+        <v>1.062274102901592</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1225510186155566</v>
+        <v>0.2407999997407631</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.02789872463856357</v>
+        <v>-0.05082015359143233</v>
       </c>
     </row>
   </sheetData>
